--- a/Assets/StreamingAssets/8_Fu_Lai.xlsx
+++ b/Assets/StreamingAssets/8_Fu_Lai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59473C80-AC1E-4E48-9383-E12C3BBE2C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DDA240-8EA5-D447-9DBC-23E6C0F831B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1480" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="11680" yWindow="1220" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,39 +161,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I have nothing to do with Lord Xu’s death!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>That’s not for you to decide. As you saw just now, Ming has entrusted me to investigate the matter.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hmph. Fine—ask away.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Why are you staying at the manor?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>About half a month ago, I met Ming in town at the foot of the mountain.
-I complimented his calligraphy—it wasn’t bad.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Then he insisted on inviting me to stay at the manor, so I figured, why not?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When was the last time you saw Lord Xu?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I don’t quite remember… maybe during lunch?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>To be honest, I hardly ever leave my room except for meals.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,19 +189,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I didn’t go anywhere—I went back to my room and slept.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I only came here because that housekeeper banged on my door and insisted I join this gathering.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So after returning to your room, you never left again?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exactly! Aren’t you done yet? I already told you—I was asleep the whole time! I didn’t see or hear a thing!</t>
+    <t>I have nothing to do with the Lord’s death!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hmph. Fine——ask away.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About half a month ago, I met Ming in town at the foot of the mountain. I complimented his calligraphy——it wasn’t bad.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When was the last time you saw the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don’t quite remember......maybe during lunch?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I didn’t go anywhere——I went back to my room and slept.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I only came here because that butler banged on my door and insisted I join this gathering.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exactly! Aren’t you done yet? I already told you——I was asleep the whole time! I didn’t see or hear a thing!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,9 +282,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -695,7 +691,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -724,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -744,7 +740,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -764,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -778,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -798,7 +794,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -818,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -838,7 +834,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -858,7 +854,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -878,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -898,7 +894,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -918,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -933,12 +929,12 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="17">
+    <row r="14" spans="1:16" ht="34">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -958,7 +954,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -978,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1031,11 +1027,6 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
